--- a/Assets/QuickSheet/Example/Excel/ExcelTable.xlsx
+++ b/Assets/QuickSheet/Example/Excel/ExcelTable.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Unity-QuickSheet\Assets\QuickSheet\Example\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE39FF8-0E83-486E-A6FE-BB150C6E79C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA920662-120E-44C4-AB13-07D025231433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Enums" sheetId="2" r:id="rId1"/>
+    <sheet name="Tables" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -33,64 +45,85 @@
     <t>Difficulty</t>
   </si>
   <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Sceleton</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Undead</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Scavanger</t>
+  </si>
+  <si>
+    <t>Lurker</t>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgradable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Goblin</t>
-  </si>
-  <si>
-    <t>Dragon</t>
-  </si>
-  <si>
-    <t>Sceleton</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Undead</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Hydra</t>
-  </si>
-  <si>
-    <t>Wolf</t>
-  </si>
-  <si>
-    <t>Scavanger</t>
-  </si>
-  <si>
-    <t>Lurker</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +146,36 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,12 +183,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -154,21 +263,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A5FBB37-733F-410F-B884-F70D6C503621}" name="Fighter" displayName="Fighter" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11" xr:uid="{1A5FBB37-733F-410F-B884-F70D6C503621}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A5FBB37-733F-410F-B884-F70D6C503621}" name="Fighter" displayName="Fighter" ref="B2:F12" totalsRowShown="0">
+  <autoFilter ref="B2:F12" xr:uid="{1A5FBB37-733F-410F-B884-F70D6C503621}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4B82B08F-D656-433C-B0FA-B4E2E0276543}" name="Id"/>
     <tableColumn id="2" xr3:uid="{35BB2840-6719-451B-A0A7-ABC88B3F4017}" name="Name"/>
     <tableColumn id="3" xr3:uid="{863FE06C-BD37-43E2-9619-B31123E4DAD6}" name="Strength"/>
     <tableColumn id="4" xr3:uid="{3CA0C81B-C5F5-4730-8B81-48CC12BFD22F}" name="Difficulty"/>
+    <tableColumn id="7" xr3:uid="{A26FCA32-36E5-4E2D-ADF5-6CE644B1CF51}" name="Upgradable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2572F4E8-6C5D-4E51-8329-24CD5A8CCC1D}" name="Currency" displayName="Currency" ref="H9:I11" totalsRowShown="0">
-  <autoFilter ref="H9:I11" xr:uid="{2572F4E8-6C5D-4E51-8329-24CD5A8CCC1D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2572F4E8-6C5D-4E51-8329-24CD5A8CCC1D}" name="Currency" displayName="Currency" ref="B16:C18" totalsRowShown="0">
+  <autoFilter ref="B16:C18" xr:uid="{2572F4E8-6C5D-4E51-8329-24CD5A8CCC1D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{67760867-A42F-4E76-A2A3-D6B1B76B97C4}" name="Id"/>
     <tableColumn id="2" xr3:uid="{134C3FDB-EE5A-4CF1-8CBF-80573A243AEF}" name="Name"/>
@@ -473,189 +583,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61738ADB-AB45-4F77-9C11-1586893678BB}">
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -666,5 +869,17 @@
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CBB6CECC-8B1A-484A-BB3A-6E15DE29AEF4}">
+          <x14:formula1>
+            <xm:f>Enums!$B$3:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Assets/QuickSheet/Example/Excel/ExcelTable.xlsx
+++ b/Assets/QuickSheet/Example/Excel/ExcelTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Unity-QuickSheet\Assets\QuickSheet\Example\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA920662-120E-44C4-AB13-07D025231433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E7429-CA88-496F-B38D-D1C434DB1FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -123,7 +123,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,36 +149,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -183,68 +166,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -262,7 +189,22 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{62F83728-3FDC-43F3-9FE4-1DA3F690B02B}" name="Difficulty" displayName="Difficulty" ref="B3:C6" totalsRowShown="0">
+  <autoFilter ref="B3:C6" xr:uid="{62F83728-3FDC-43F3-9FE4-1DA3F690B02B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5CC18A0D-856C-4BDB-BF39-9AD204D65325}" name="Difficulty"/>
+    <tableColumn id="2" xr3:uid="{BD715D02-0C3C-47FA-94A5-077085E4245B}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A5FBB37-733F-410F-B884-F70D6C503621}" name="Fighter" displayName="Fighter" ref="B2:F12" totalsRowShown="0">
   <autoFilter ref="B2:F12" xr:uid="{1A5FBB37-733F-410F-B884-F70D6C503621}"/>
   <tableColumns count="5">
@@ -276,7 +218,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2572F4E8-6C5D-4E51-8329-24CD5A8CCC1D}" name="Currency" displayName="Currency" ref="B16:C18" totalsRowShown="0">
   <autoFilter ref="B16:C18" xr:uid="{2572F4E8-6C5D-4E51-8329-24CD5A8CCC1D}"/>
   <tableColumns count="2">
@@ -584,52 +526,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61738ADB-AB45-4F77-9C11-1586893678BB}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -638,7 +584,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -695,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -746,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -797,7 +743,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -869,17 +815,5 @@
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CBB6CECC-8B1A-484A-BB3A-6E15DE29AEF4}">
-          <x14:formula1>
-            <xm:f>Enums!$B$3:$B$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E12</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Assets/QuickSheet/Example/Excel/ExcelTable.xlsx
+++ b/Assets/QuickSheet/Example/Excel/ExcelTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Unity-QuickSheet\Assets\QuickSheet\Example\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geekchic\Documents\Unity Projects\Unity-QuickSheet\Assets\QuickSheet\Example\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E7429-CA88-496F-B38D-D1C434DB1FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754C946B-4A3C-4488-B8B4-A601C2A09675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1230" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enums" sheetId="2" r:id="rId1"/>
@@ -119,14 +119,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>Difficulty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,16 +189,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{62F83728-3FDC-43F3-9FE4-1DA3F690B02B}" name="Difficulty" displayName="Difficulty" ref="B3:C6" totalsRowShown="0">
   <autoFilter ref="B3:C6" xr:uid="{62F83728-3FDC-43F3-9FE4-1DA3F690B02B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5CC18A0D-856C-4BDB-BF39-9AD204D65325}" name="Difficulty"/>
-    <tableColumn id="2" xr3:uid="{BD715D02-0C3C-47FA-94A5-077085E4245B}" name="Value"/>
+    <tableColumn id="2" xr3:uid="{0189F6DF-8E72-4B15-B314-99CF0CC75FBA}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,7 +525,7 @@
   <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -539,10 +535,10 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -584,7 +580,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
